--- a/Study project/Exel table/Books.xlsx
+++ b/Study project/Exel table/Books.xlsx
@@ -441,22 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Brand</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Price</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
         </is>
       </c>
     </row>
@@ -466,22 +466,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/a-light-in-the-attic_1000/index.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>A Light in the Attic</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/a-light-in-the-attic_1000/index.html</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>51.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -491,22 +491,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/tipping-the-velvet_999/index.html</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Tipping the Velvet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/tipping-the-velvet_999/index.html</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>53.74</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -516,22 +516,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/soumission_998/index.html</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Soumission</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/soumission_998/index.html</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>50.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -541,22 +541,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/sharp-objects_997/index.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Sharp Objects</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/sharp-objects_997/index.html</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>47.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -566,22 +566,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/sapiens-a-brief-history-of-humankind_996/index.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Sapiens: A Brief History of Humankind</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/sapiens-a-brief-history-of-humankind_996/index.html</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>54.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/the-requiem-red_995/index.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>The Requiem Red</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/the-requiem-red_995/index.html</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>22.65</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -616,22 +616,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/the-dirty-little-secrets-of-getting-your-dream-job_994/index.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>The Dirty Little Secrets of Getting Your Dream Job</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/the-dirty-little-secrets-of-getting-your-dream-job_994/index.html</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>33.34</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/the-coming-woman-a-novel-based-on-the-life-of-the-infamous-feminist-victoria-woodhull_993/index.html</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>The Coming Woman: A Novel Based on the Life of the Infamous Feminist, Victoria Woodhull</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/the-coming-woman-a-novel-based-on-the-life-of-the-infamous-feminist-victoria-woodhull_993/index.html</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>17.93</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -666,22 +666,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/the-boys-in-the-boat-nine-americans-and-their-epic-quest-for-gold-at-the-1936-berlin-olympics_992/index.html</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>The Boys in the Boat: Nine Americans and Their Epic Quest for Gold at the 1936 Berlin Olympics</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/the-boys-in-the-boat-nine-americans-and-their-epic-quest-for-gold-at-the-1936-berlin-olympics_992/index.html</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>22.60</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -691,22 +691,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/the-black-maria_991/index.html</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>The Black Maria</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/the-black-maria_991/index.html</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>52.15</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -716,22 +716,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/starving-hearts-triangular-trade-trilogy-1_990/index.html</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Starving Hearts (Triangular Trade Trilogy, #1)</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/starving-hearts-triangular-trade-trilogy-1_990/index.html</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>13.99</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -741,22 +741,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/shakespeares-sonnets_989/index.html</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Shakespeare's Sonnets</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/shakespeares-sonnets_989/index.html</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>20.66</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -766,22 +766,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/set-me-free_988/index.html</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Set Me Free</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/set-me-free_988/index.html</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>17.46</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -791,22 +791,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/scott-pilgrims-precious-little-life-scott-pilgrim-1_987/index.html</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Scott Pilgrim's Precious Little Life (Scott Pilgrim #1)</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/scott-pilgrims-precious-little-life-scott-pilgrim-1_987/index.html</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>52.29</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -816,22 +816,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/rip-it-up-and-start-again_986/index.html</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>Rip it Up and Start Again</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/rip-it-up-and-start-again_986/index.html</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>35.02</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -841,22 +841,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/our-band-could-be-your-life-scenes-from-the-american-indie-underground-1981-1991_985/index.html</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>Our Band Could Be Your Life: Scenes from the American Indie Underground, 1981-1991</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/our-band-could-be-your-life-scenes-from-the-american-indie-underground-1981-1991_985/index.html</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>57.25</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -866,22 +866,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/olio_984/index.html</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Olio</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/olio_984/index.html</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>23.88</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -891,22 +891,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/mesaerion-the-best-science-fiction-stories-1800-1849_983/index.html</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>Mesaerion: The Best Science Fiction Stories 1800-1849</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/mesaerion-the-best-science-fiction-stories-1800-1849_983/index.html</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>37.59</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -916,22 +916,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/libertarianism-for-beginners_982/index.html</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Libertarianism for Beginners</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/libertarianism-for-beginners_982/index.html</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>51.33</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>https://books.toscrape.com/catalogue/its-only-the-himalayas_981/index.html</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>In stock</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>It's Only the Himalayas</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://books.toscrape.com/catalogue/its-only-the-himalayas_981/index.html</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>45.17</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>In stock</t>
         </is>
       </c>
     </row>
